--- a/trails.xlsx
+++ b/trails.xlsx
@@ -7,7 +7,7 @@
   </sheets>
   <definedNames>
     <definedName name="Slicer_Area">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Data!$A$1:$C$89</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Data!$A$1:$C$99</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="203">
   <si>
     <t>Name</t>
   </si>
@@ -30,548 +30,629 @@
     <t>Website</t>
   </si>
   <si>
-    <t>wolwespruit bike &amp; trail park</t>
+    <t>Aasvoëlbad</t>
+  </si>
+  <si>
+    <t>Hartbeespoort</t>
+  </si>
+  <si>
+    <t>https://www.merrell.co.za/hiking_clubs/aasvoelbad</t>
+  </si>
+  <si>
+    <t>Adventure zone cullinan</t>
   </si>
   <si>
     <t>Pretoria</t>
   </si>
   <si>
+    <t>https://www.adventurezone.co.za/</t>
+  </si>
+  <si>
+    <t>African Swiss</t>
+  </si>
+  <si>
+    <t>https://www.africanswiss.com/</t>
+  </si>
+  <si>
+    <t>Albert's farm</t>
+  </si>
+  <si>
+    <t>Johannesburg</t>
+  </si>
+  <si>
+    <t>http://albertsfarm.org/</t>
+  </si>
+  <si>
+    <t>Avianto</t>
+  </si>
+  <si>
+    <t>https://whatsoninjoburg.com/avianto-estate-hiking-trails/</t>
+  </si>
+  <si>
+    <t>B'sorah</t>
+  </si>
+  <si>
+    <t>http://www.bsorah.com/</t>
+  </si>
+  <si>
+    <t>Bergheim</t>
+  </si>
+  <si>
+    <t>Rustenburg</t>
+  </si>
+  <si>
+    <t>https://edinburghmintohotel.co.uk/all/bergheim-hiking-trail-explore-hidden-gorges-and-stunning-views-in-magaliesberg/</t>
+  </si>
+  <si>
+    <t>Bishop bird park nature area</t>
+  </si>
+  <si>
+    <t>https://www.tshwane.gov.za/?page_id=5171</t>
+  </si>
+  <si>
+    <t>Braamfontein spruit trail</t>
+  </si>
+  <si>
+    <t>https://mtbroutes.co.za/trail-detail/gauteng/central-gauteng/braamfontein-spruit/</t>
+  </si>
+  <si>
+    <t>Buffelsdrift trail park</t>
+  </si>
+  <si>
+    <t>https://buffelsdriftmtb.co.za/</t>
+  </si>
+  <si>
+    <t>Danielsrust game farm</t>
+  </si>
+  <si>
+    <t>https://www.danielsrust.co.za/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De wildt adventure </t>
+  </si>
+  <si>
+    <t>https://www.dewildttrails.co.za/</t>
+  </si>
+  <si>
+    <t>Delta park</t>
+  </si>
+  <si>
+    <t>https://www.jhbcityparksandzoo.com/services-facilities/parks/find-a-park/delta-park</t>
+  </si>
+  <si>
+    <t>Die Bosveld</t>
+  </si>
+  <si>
+    <t>https://diebosveld.co.za/trails/</t>
+  </si>
+  <si>
+    <t>Dinokeng resort</t>
+  </si>
+  <si>
+    <t>https://dinokengresort.co.za/</t>
+  </si>
+  <si>
+    <t>Ezamvelo nature reserve</t>
+  </si>
+  <si>
+    <t>https://www.ezemvelo.co.za/</t>
+  </si>
+  <si>
+    <t>Faerie glen nature reserve</t>
+  </si>
+  <si>
+    <t>https://www.tshwane.gov.za/?page_id=5493</t>
+  </si>
+  <si>
+    <t>Forestiva farm</t>
+  </si>
+  <si>
+    <t>https://www.forestiva.com/hiking</t>
+  </si>
+  <si>
+    <t>Giloolys and Harvey park</t>
+  </si>
+  <si>
+    <t>https://mapio.net/pic/p-17084577/</t>
+  </si>
+  <si>
+    <t>Glenburn Lodge and Spa</t>
+  </si>
+  <si>
+    <t>https://guvonhotels.co.za/glenburn-lodge/</t>
+  </si>
+  <si>
+    <t>Golden Harvest Park</t>
+  </si>
+  <si>
+    <t>https://www.jhbcityparksandzoo.com/services-facilities/parks/find-a-park/golden-harvest-park</t>
+  </si>
+  <si>
+    <t>Gradle moon lodge</t>
+  </si>
+  <si>
+    <t>https://www.cradlemoon.co.za/</t>
+  </si>
+  <si>
+    <t>Groenkloof nature reserve</t>
+  </si>
+  <si>
+    <t>https://www.tshwane.gov.za/?page_id=5291</t>
+  </si>
+  <si>
+    <t>Ground the venue</t>
+  </si>
+  <si>
+    <t>https://groundthevenue.com/hikes/</t>
+  </si>
+  <si>
+    <t>Ground zero adventure pecan park</t>
+  </si>
+  <si>
+    <t>https://gzadventures.com/</t>
+  </si>
+  <si>
+    <t>Happy Acres</t>
+  </si>
+  <si>
+    <t>https://www.happyacres.co.za/</t>
+  </si>
+  <si>
+    <t>Harties horse safari</t>
+  </si>
+  <si>
+    <t>https://www.hartieshorsetrailsafaris.co.za/</t>
+  </si>
+  <si>
+    <t>Harties river hiking</t>
+  </si>
+  <si>
+    <t>https://rustyfeather.co.za/hike/</t>
+  </si>
+  <si>
+    <t>Hazeldean valley</t>
+  </si>
+  <si>
+    <t>http://www.hazeldeanvalley.co.za/</t>
+  </si>
+  <si>
+    <t>Hedianga farm</t>
+  </si>
+  <si>
+    <t>https://www.hediangafarm.co.za/</t>
+  </si>
+  <si>
+    <t>Hennops</t>
+  </si>
+  <si>
+    <t>https://www.hennopstrails.co.za/</t>
+  </si>
+  <si>
+    <t>Hennops lifestyle resort</t>
+  </si>
+  <si>
+    <t>http://hennopspride.co.za/</t>
+  </si>
+  <si>
+    <t>Hobby park</t>
+  </si>
+  <si>
+    <t>https://www.hobbypark.co.za/</t>
+  </si>
+  <si>
+    <t>Holly brook adventure</t>
+  </si>
+  <si>
+    <t>https://www.hollybrooke.co.za/</t>
+  </si>
+  <si>
+    <t>Hoogland Hiking Trail</t>
+  </si>
+  <si>
+    <t>https://thinkadventure.guide/explore/pretoria-things-to-do/hoogland-hiking-trail-review/</t>
+  </si>
+  <si>
+    <t>Hornbill lodge</t>
+  </si>
+  <si>
+    <t>https://www.hornbill.co.za/</t>
+  </si>
+  <si>
+    <t>Huddle park</t>
+  </si>
+  <si>
+    <t>http://huddlepark.com/Pages/NATURE-TRAILS.asp</t>
+  </si>
+  <si>
+    <t>Irene Farm</t>
+  </si>
+  <si>
+    <t>https://www.irenefarm.co.za/</t>
+  </si>
+  <si>
+    <t>Iron throne trail park</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Iron Throne Trail Park | Merrell</t>
+    </r>
+  </si>
+  <si>
+    <t>JHB Botanical gardens</t>
+  </si>
+  <si>
+    <t>https://www.jhbcityparksandzoo.com/services-facilities/botanical-gardens/about</t>
+  </si>
+  <si>
+    <t>Kenmare Kloof</t>
+  </si>
+  <si>
+    <t>https://roodekranswatch.com/category/kenmare-kloof-conservation-association/</t>
+  </si>
+  <si>
+    <t>Kings Kloof</t>
+  </si>
+  <si>
+    <t>https://www.kingskloofvenue.co.za/</t>
+  </si>
+  <si>
+    <t>Klapperkop Nature Reserve</t>
+  </si>
+  <si>
+    <t>https://www.tshwane.gov.za/?page_id=5487</t>
+  </si>
+  <si>
+    <t>Klipkraal</t>
+  </si>
+  <si>
+    <t>https://dayhikers.co.za/venues/klipkraal-hiking-trail</t>
+  </si>
+  <si>
+    <t>Klipriviersberg Nature Reserve</t>
+  </si>
+  <si>
+    <t>http://klipriviersberg.org.za/</t>
+  </si>
+  <si>
+    <t>Kloofendal nature reserve</t>
+  </si>
+  <si>
+    <t>https://www.jhbcityparksandzoo.com/services-facilities/nature-reserves-bird-sanctuary/find-a-reserve/kloofendal-nature-reserve</t>
+  </si>
+  <si>
+    <t>Leeuwenkloof</t>
+  </si>
+  <si>
+    <t>https://leeuwenkloof.co.za/</t>
+  </si>
+  <si>
+    <t>Leopard lodge</t>
+  </si>
+  <si>
+    <t>https://www.leopardlodge.co.za/</t>
+  </si>
+  <si>
+    <t>Made on earth</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/madeonearthhikingtrails/</t>
+  </si>
+  <si>
+    <t>Magalies  mountain lodge and spa</t>
+  </si>
+  <si>
+    <t>https://www.magaliesmountainlodge.co.za/</t>
+  </si>
+  <si>
+    <t>Majakaneng heritage</t>
+  </si>
+  <si>
+    <t>https://magaliesbergbiosphere.org.za/majakaneng-heritage-trail/</t>
+  </si>
+  <si>
+    <t>Melville Koppies Nature Reserve</t>
+  </si>
+  <si>
+    <t>http://www.mk.org.za/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modderfontein reserve (Toroko) </t>
+  </si>
+  <si>
+    <t>https://modderfonteinreserve.co.za/taroko-trails/</t>
+  </si>
+  <si>
+    <t>Monte de dios</t>
+  </si>
+  <si>
+    <t>https://www.montededios.co.za/</t>
+  </si>
+  <si>
+    <t>Moreleta kloof nature reserve</t>
+  </si>
+  <si>
+    <t>https://moreletakloof.co.za/</t>
+  </si>
+  <si>
+    <t>Mountain Sanctuary park</t>
+  </si>
+  <si>
+    <t>https://www.mountain-sanctuary.co.za/</t>
+  </si>
+  <si>
+    <t>Nadia's peak</t>
+  </si>
+  <si>
+    <t>https://www.merrell.co.za/hiking_clubs/nadias-peak-hiking-trails</t>
+  </si>
+  <si>
+    <t>Norscot Koppies</t>
+  </si>
+  <si>
+    <t>https://runningdeveloper.github.io/trails-data/gauteng/norscot-koppies/</t>
+  </si>
+  <si>
+    <t>Northern farms</t>
+  </si>
+  <si>
+    <t>https://northernfarm.org/</t>
+  </si>
+  <si>
+    <t>Nt shonalanga</t>
+  </si>
+  <si>
+    <t>http://www.shonalanga.co.za/</t>
+  </si>
+  <si>
+    <t>Olive tree farm</t>
+  </si>
+  <si>
+    <t>https://olivetreefarm.co.za/</t>
+  </si>
+  <si>
+    <t>Oubaas Smuts</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Activities – The Smuts House Museum</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Phaladingwe </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Africaland (Phaladingwe) Hiking Trail near Hartbeespoort</t>
+    </r>
+  </si>
+  <si>
+    <t>Phefumula</t>
+  </si>
+  <si>
+    <t>https://phefumula.co.za/</t>
+  </si>
+  <si>
+    <t>Piesangkloof</t>
+  </si>
+  <si>
+    <t>https://piesangkloof.co.za/</t>
+  </si>
+  <si>
+    <t>Pretoria botanical gardens</t>
+  </si>
+  <si>
+    <t>http://www.sanbi.org/gardens/pretoria/</t>
+  </si>
+  <si>
+    <t>Remhoogte mountain lodge</t>
+  </si>
+  <si>
+    <t>https://www.remhoogtemountainlodge.co.za/</t>
+  </si>
+  <si>
+    <t>Rietfontein nature reserve</t>
+  </si>
+  <si>
+    <t>https://www.jhbcityparksandzoo.com/services-facilities/nature-reserves-bird-sanctuary/find-a-reserve/rietfontein-nature-reserve</t>
+  </si>
+  <si>
+    <t>Rietvlei nature reserve</t>
+  </si>
+  <si>
+    <t>https://www.tshwane.gov.za/?page_id=5505</t>
+  </si>
+  <si>
+    <t>Rietvlei zoo farm</t>
+  </si>
+  <si>
+    <t>https://www.rietvleilifestylecentre.co.za/web/index.asp</t>
+  </si>
+  <si>
+    <t>Riversands farm village</t>
+  </si>
+  <si>
+    <t>https://riversandsfarm.co.za/</t>
+  </si>
+  <si>
+    <t>Rosemary Hill</t>
+  </si>
+  <si>
+    <t>https://www.rosemaryhill.co.za/</t>
+  </si>
+  <si>
+    <t>Rustig</t>
+  </si>
+  <si>
+    <t>https://www.rustig.co.za/</t>
+  </si>
+  <si>
+    <t>Sable ranch</t>
+  </si>
+  <si>
+    <t>https://www.sablemagalies.co.za/</t>
+  </si>
+  <si>
+    <t>Segwati Getaways</t>
+  </si>
+  <si>
+    <t>https://segwatigetaways.co.za/</t>
+  </si>
+  <si>
+    <t>Shelter rock</t>
+  </si>
+  <si>
+    <t>http://shelterrock.co.za/</t>
+  </si>
+  <si>
+    <t>Somabula Nature Reserve</t>
+  </si>
+  <si>
+    <t>https://somabula.co.za/</t>
+  </si>
+  <si>
+    <t>Sterkfontein heritage lodge</t>
+  </si>
+  <si>
+    <t>https://sterkfonteinlodge.co.za/</t>
+  </si>
+  <si>
+    <t>Sugar bush hill</t>
+  </si>
+  <si>
+    <t>https://www.sugarbushhill.co.za/</t>
+  </si>
+  <si>
+    <t>Suikerbosrand nature reserve</t>
+  </si>
+  <si>
+    <t>https://www.friendsofsuikerbosrand.co.za/reserve_info.html</t>
+  </si>
+  <si>
+    <t>Thaba Nkwe</t>
+  </si>
+  <si>
+    <t>https://thabankwe.co.za/</t>
+  </si>
+  <si>
+    <t>Thaba trails</t>
+  </si>
+  <si>
+    <t>https://thabatrails.co.za/</t>
+  </si>
+  <si>
+    <t>Thabamentsi farm</t>
+  </si>
+  <si>
+    <t>https://thabametsifarm.co.za/</t>
+  </si>
+  <si>
+    <t>The Big red barn</t>
+  </si>
+  <si>
+    <t>https://www.thebigredbarn.co.za/</t>
+  </si>
+  <si>
+    <t>The rocks estate</t>
+  </si>
+  <si>
+    <t>https://www.attherocks.co.za/walking-trail</t>
+  </si>
+  <si>
+    <t>The Wilds Nature Reserve</t>
+  </si>
+  <si>
+    <t>https://www.jhbcityparksandzoo.com/services-facilities/nature-reserves-bird-sanctuary/find-a-reserve/the-wilds-nature-reserve</t>
+  </si>
+  <si>
+    <t>Tierpoort adventure farm</t>
+  </si>
+  <si>
+    <t>https://www.revolutiontrails.co.za/copy-of-ingaadi-spa-events</t>
+  </si>
+  <si>
+    <t>Tswaing crater</t>
+  </si>
+  <si>
+    <t>https://ditsong.org.za/en/tswaing-meteorite/</t>
+  </si>
+  <si>
+    <t>Tuin Van Eden</t>
+  </si>
+  <si>
+    <t>https://www.tuinvaneden.co.za/</t>
+  </si>
+  <si>
+    <t>Uitkyk</t>
+  </si>
+  <si>
+    <t>https://www.uitkyktrail.co.za/</t>
+  </si>
+  <si>
+    <t>Van Gaalens</t>
+  </si>
+  <si>
+    <t>https://www.vangaalen.co.za/</t>
+  </si>
+  <si>
+    <t>Vergenoeg nature reserve</t>
+  </si>
+  <si>
+    <t>https://www.vergenoegreserve.com/</t>
+  </si>
+  <si>
+    <t>Voortrekker monument reserve</t>
+  </si>
+  <si>
+    <t>https://vtm.org.za/en/home/</t>
+  </si>
+  <si>
+    <t>Walter Sisulu botanical gardens</t>
+  </si>
+  <si>
+    <t>https://www.sanbi.org/gardens/walter-sisulu/</t>
+  </si>
+  <si>
+    <t>Weaver's Roost Resort</t>
+  </si>
+  <si>
+    <t>https://www.weaversroost.co.za/</t>
+  </si>
+  <si>
+    <t>windy brow game reserve</t>
+  </si>
+  <si>
+    <t>https://www.windybrowgamereserve.co.za/</t>
+  </si>
+  <si>
+    <t>Wolwespruit bike &amp; trail park</t>
+  </si>
+  <si>
     <t>https://wolwespruit.co.za/</t>
   </si>
   <si>
-    <t>Groenkloof nature reserve</t>
-  </si>
-  <si>
-    <t>https://www.tshwane.gov.za/?page_id=5291</t>
-  </si>
-  <si>
-    <t>Rosemary Hill</t>
-  </si>
-  <si>
-    <t>https://www.rosemaryhill.co.za/</t>
-  </si>
-  <si>
-    <t>Magalies  mountain lodge and spa</t>
-  </si>
-  <si>
-    <t>https://www.magaliesmountainlodge.co.za/</t>
-  </si>
-  <si>
-    <t>Hazeldean valley</t>
-  </si>
-  <si>
-    <t>http://www.hazeldeanvalley.co.za/</t>
-  </si>
-  <si>
-    <t>Nt shonalanga</t>
-  </si>
-  <si>
-    <t>http://www.shonalanga.co.za/</t>
-  </si>
-  <si>
-    <t>Bishop bird park nature area</t>
-  </si>
-  <si>
-    <t>https://bishopbirdpark.co.za/</t>
-  </si>
-  <si>
-    <t>Adventure zone cullinan</t>
-  </si>
-  <si>
-    <t>https://www.adventurezone.co.za/</t>
-  </si>
-  <si>
-    <t>windy brow game reserve</t>
-  </si>
-  <si>
-    <t>https://www.windybrowgamereserve.co.za/</t>
-  </si>
-  <si>
-    <t>Faerie glen nature reserve</t>
-  </si>
-  <si>
-    <t>https://www.tshwane.gov.za/?page_id=5493</t>
-  </si>
-  <si>
-    <t>Pretoria botanical gardens</t>
-  </si>
-  <si>
-    <t>http://www.sanbi.org/gardens/pretoria/</t>
-  </si>
-  <si>
     <t>Wonderboon nature reserve</t>
   </si>
   <si>
     <t>https://www.tshwane.gov.za/?page_id=5481</t>
-  </si>
-  <si>
-    <t>The Big red barn</t>
-  </si>
-  <si>
-    <t>https://www.thebigredbarn.co.za/</t>
-  </si>
-  <si>
-    <t>Tswaing crater</t>
-  </si>
-  <si>
-    <t>https://www.hikingproject.com/trail/7044855/tswaing-crater-trail</t>
-  </si>
-  <si>
-    <t>Voortrekker monument reserve</t>
-  </si>
-  <si>
-    <t>https://vtm.org.za/en/home/</t>
-  </si>
-  <si>
-    <t>Oubaas Smuts</t>
-  </si>
-  <si>
-    <t>http://www.smutshouse.co.za/index.php/facilities/the-oubaas-trail</t>
-  </si>
-  <si>
-    <t>Irene Farm</t>
-  </si>
-  <si>
-    <t>https://www.irenefarm.co.za/</t>
-  </si>
-  <si>
-    <t>Monte de dios</t>
-  </si>
-  <si>
-    <t>https://www.montededios.co.za/</t>
-  </si>
-  <si>
-    <t>Somabula Nature Reserve</t>
-  </si>
-  <si>
-    <t>https://somabula.co.za/</t>
-  </si>
-  <si>
-    <t>The rocks estate</t>
-  </si>
-  <si>
-    <t>https://www.attherocks.co.za/walking-trail</t>
-  </si>
-  <si>
-    <t>Dinokeng resort</t>
-  </si>
-  <si>
-    <t>https://dinokengresort.co.za/</t>
-  </si>
-  <si>
-    <t>Ezamvelo nature reserve</t>
-  </si>
-  <si>
-    <t>https://www.ezemvelo.co.za/</t>
-  </si>
-  <si>
-    <t>Buffelsdrift trail park</t>
-  </si>
-  <si>
-    <t>https://buffelsdriftmtb.co.za/</t>
-  </si>
-  <si>
-    <t>Moreleta kloof nature reserve</t>
-  </si>
-  <si>
-    <t>https://moreletakloof.co.za/</t>
-  </si>
-  <si>
-    <t>Rietvlei nature reserve</t>
-  </si>
-  <si>
-    <t>https://www.tshwane.gov.za/?page_id=5505</t>
-  </si>
-  <si>
-    <t>Hedianga farm</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/hedianga.farm</t>
-  </si>
-  <si>
-    <t>Tierpoort adventure farm</t>
-  </si>
-  <si>
-    <t>https://www.revolutiontrails.co.za/copy-of-ingaadi-spa-events</t>
-  </si>
-  <si>
-    <t>Made on earth</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/madeonearthhikingtrails/</t>
-  </si>
-  <si>
-    <t>Rietvlei zoo farm</t>
-  </si>
-  <si>
-    <t>Johannesburg</t>
-  </si>
-  <si>
-    <t>https://www.rietvleilifestylecentre.co.za/web/index.asp</t>
-  </si>
-  <si>
-    <t>Thaba trails</t>
-  </si>
-  <si>
-    <t>https://mtbroutes.co.za/trail-detail/gauteng/central-gauteng/thaba-trails/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modderfontein reserve (Toroko) </t>
-  </si>
-  <si>
-    <t>https://modderfonteinreserve.co.za/taroko-trails/</t>
-  </si>
-  <si>
-    <t>Sterkfontein heritage lodge</t>
-  </si>
-  <si>
-    <t>https://sterkfonteinlodge.co.za/</t>
-  </si>
-  <si>
-    <t>Kings Kloof</t>
-  </si>
-  <si>
-    <t>https://www.kingskloofvenue.co.za/</t>
-  </si>
-  <si>
-    <t>Hobby park</t>
-  </si>
-  <si>
-    <t>https://www.hobbypark.co.za/</t>
-  </si>
-  <si>
-    <t>Walter Sisulu botanical gardens</t>
-  </si>
-  <si>
-    <t>https://www.sanbi.org/gardens/walter-sisulu/</t>
-  </si>
-  <si>
-    <t>Segwati Getaways</t>
-  </si>
-  <si>
-    <t>https://segwatigetaways.co.za/</t>
-  </si>
-  <si>
-    <t>Northern farms</t>
-  </si>
-  <si>
-    <t>https://northernfarm.org/</t>
-  </si>
-  <si>
-    <t>Avianto</t>
-  </si>
-  <si>
-    <t>https://www.avianto.co.za/avianto-online-trail-tickets/</t>
-  </si>
-  <si>
-    <t>Huddle park</t>
-  </si>
-  <si>
-    <t>http://huddlepark.com/Pages/NATURE-TRAILS.asp</t>
-  </si>
-  <si>
-    <t>The Wilds Nature Reserve</t>
-  </si>
-  <si>
-    <t>https://www.jhbcityparksandzoo.com/services-facilities/nature-reserves-bird-sanctuary/find-a-reserve/the-wilds-nature-reserve</t>
-  </si>
-  <si>
-    <t>Kloofendal nature reserve</t>
-  </si>
-  <si>
-    <t>https://www.jhbcityparksandzoo.com/services-facilities/nature-reserves-bird-sanctuary/find-a-reserve/kloofendal-nature-reserve</t>
-  </si>
-  <si>
-    <t>Golden Harvest Park</t>
-  </si>
-  <si>
-    <t>https://www.jhbcityparksandzoo.com/services-facilities/parks/find-a-park/golden-harvest-park</t>
-  </si>
-  <si>
-    <t>Delta park</t>
-  </si>
-  <si>
-    <t>https://www.jhbcityparksandzoo.com/services-facilities/parks/find-a-park/delta-park</t>
-  </si>
-  <si>
-    <t>JHB Botanical gardens</t>
-  </si>
-  <si>
-    <t>https://www.jhbcityparksandzoo.com/services-facilities/botanical-gardens/about</t>
-  </si>
-  <si>
-    <t>Braamfontein spruit trail</t>
-  </si>
-  <si>
-    <t>https://mtbroutes.co.za/trail-detail/gauteng/central-gauteng/braamfontein-spruit/</t>
-  </si>
-  <si>
-    <t>Albert's farm</t>
-  </si>
-  <si>
-    <t>http://albertsfarm.org/</t>
-  </si>
-  <si>
-    <t>Giloolys and Harvey park</t>
-  </si>
-  <si>
-    <t>https://mapio.net/pic/p-17084577/</t>
-  </si>
-  <si>
-    <t>Norscot Koppies</t>
-  </si>
-  <si>
-    <t>https://www.opengreenmap.org/greenmap/joburg-green-map/norscot-koppies-and-kingfisher-nature-reserve-31590</t>
-  </si>
-  <si>
-    <t>Melville Koppies Nature Reserve</t>
-  </si>
-  <si>
-    <t>http://www.mk.org.za/</t>
-  </si>
-  <si>
-    <t>Rietfontein nature reserve</t>
-  </si>
-  <si>
-    <t>https://www.jhbcityparksandzoo.com/services-facilities/nature-reserves-bird-sanctuary/find-a-reserve/rietfontein-nature-reserve</t>
-  </si>
-  <si>
-    <t>Klipriviersberg Nature Reserve</t>
-  </si>
-  <si>
-    <t>http://klipriviersberg.org.za/</t>
-  </si>
-  <si>
-    <t>Klipkraal</t>
-  </si>
-  <si>
-    <t>https://dayhikers.co.za/venues/klipkraal-hiking-trail</t>
-  </si>
-  <si>
-    <t>Suikerbosrand nature reserve</t>
-  </si>
-  <si>
-    <t>https://www.friendsofsuikerbosrand.co.za/reserve_info.html</t>
-  </si>
-  <si>
-    <t>Riversands farm village</t>
-  </si>
-  <si>
-    <t>https://riversandsfarm.co.za/</t>
-  </si>
-  <si>
-    <t>Tuin Van Eden</t>
-  </si>
-  <si>
-    <t>https://www.tuinvaneden.co.za/</t>
-  </si>
-  <si>
-    <t>Kenmare Kloof</t>
-  </si>
-  <si>
-    <t>https://roodekranswatch.com/category/kenmare-kloof-conservation-association/</t>
-  </si>
-  <si>
-    <t>Holly brook adventure</t>
-  </si>
-  <si>
-    <t>Hartbeespoort</t>
-  </si>
-  <si>
-    <t>https://www.hollybrooke.co.za/</t>
-  </si>
-  <si>
-    <t>Olive tree farm</t>
-  </si>
-  <si>
-    <t>https://olivetreefarm.co.za/</t>
-  </si>
-  <si>
-    <t>Sugar bush hill</t>
-  </si>
-  <si>
-    <t>https://www.sugarbushhill.co.za/</t>
-  </si>
-  <si>
-    <t>Uitkyk</t>
-  </si>
-  <si>
-    <t>https://www.uitkyktrail.co.za/</t>
-  </si>
-  <si>
-    <t>Mountain Sanctuary park</t>
-  </si>
-  <si>
-    <t>https://www.mountain-sanctuary.co.za/</t>
-  </si>
-  <si>
-    <t>Happy Acres</t>
-  </si>
-  <si>
-    <t>https://www.happyacres.co.za/</t>
-  </si>
-  <si>
-    <t>Vergenoeg nature reserve</t>
-  </si>
-  <si>
-    <t>https://www.vergenoegreserve.com/</t>
-  </si>
-  <si>
-    <t>Leeuwenkloof</t>
-  </si>
-  <si>
-    <t>https://leeuwenkloof.co.za/</t>
-  </si>
-  <si>
-    <t>Leopard lodge</t>
-  </si>
-  <si>
-    <t>https://www.leopardlodge.co.za/</t>
-  </si>
-  <si>
-    <t>Glenburn Lodge and Spa</t>
-  </si>
-  <si>
-    <t>https://guvonhotels.co.za/glenburn-lodge/</t>
-  </si>
-  <si>
-    <t>B'sorah</t>
-  </si>
-  <si>
-    <t>http://www.bsorah.com/</t>
-  </si>
-  <si>
-    <t>Van Gaalens</t>
-  </si>
-  <si>
-    <t>https://www.vangaalen.co.za/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phaladingwe </t>
-  </si>
-  <si>
-    <t>https://africaland.webnode.page/</t>
-  </si>
-  <si>
-    <t>Gradle moon lodge</t>
-  </si>
-  <si>
-    <t>https://www.cradlemoon.co.za/</t>
-  </si>
-  <si>
-    <t>Sable ranch</t>
-  </si>
-  <si>
-    <t>https://www.sablemagalies.co.za/</t>
-  </si>
-  <si>
-    <t>Shelter rock</t>
-  </si>
-  <si>
-    <t>http://shelterrock.co.za/</t>
-  </si>
-  <si>
-    <t>African Swiss</t>
-  </si>
-  <si>
-    <t>https://www.africanswiss.com/</t>
-  </si>
-  <si>
-    <t>Weaver's Roost Resort</t>
-  </si>
-  <si>
-    <t>https://www.weaversroost.co.za/</t>
-  </si>
-  <si>
-    <t>Hennops</t>
-  </si>
-  <si>
-    <t>https://www.hennopstrails.co.za/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De wildt adventure </t>
-  </si>
-  <si>
-    <t>https://www.dewildttrails.co.za/</t>
-  </si>
-  <si>
-    <t>Ground zero adventure pecan park</t>
-  </si>
-  <si>
-    <t>https://gzadventures.com/</t>
-  </si>
-  <si>
-    <t>Hornbill lodge</t>
-  </si>
-  <si>
-    <t>https://www.hornbill.co.za/</t>
-  </si>
-  <si>
-    <t>Remhoogte mountain lodge</t>
-  </si>
-  <si>
-    <t>https://www.remhoogtemountainlodge.co.za/</t>
-  </si>
-  <si>
-    <t>Hennops lifestyle resort</t>
-  </si>
-  <si>
-    <t>http://hennopspride.co.za/</t>
-  </si>
-  <si>
-    <t>Rustig</t>
-  </si>
-  <si>
-    <t>https://www.rustig.co.za/</t>
-  </si>
-  <si>
-    <t>Iron throne trail park</t>
-  </si>
-  <si>
-    <t>https://iron-throne-adventure-park.business.site/</t>
-  </si>
-  <si>
-    <t>Thabamentsi farm</t>
-  </si>
-  <si>
-    <t>https://thabametsifarm.co.za/</t>
-  </si>
-  <si>
-    <t>Phefumula</t>
-  </si>
-  <si>
-    <t>https://phefumula.co.za/</t>
-  </si>
-  <si>
-    <t>Thaba Nkwe</t>
-  </si>
-  <si>
-    <t>https://thabankwe.co.za/</t>
-  </si>
-  <si>
-    <t>Piesangkloof</t>
-  </si>
-  <si>
-    <t>https://piesangkloof.co.za/</t>
-  </si>
-  <si>
-    <t>Harties horse safari</t>
-  </si>
-  <si>
-    <t>https://www.hartieshorsetrailsafaris.co.za/</t>
-  </si>
-  <si>
-    <t>Harties river hiking</t>
-  </si>
-  <si>
-    <t>https://rustyfeather.co.za/hike/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -585,17 +666,49 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color rgb="FF212529"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0563C1"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,8 +717,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF2E7D32"/>
+        <bgColor rgb="FF2E7D32"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -621,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -629,9 +766,37 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -851,7 +1016,12 @@
     <col customWidth="1" min="1" max="1" width="30.71"/>
     <col customWidth="1" min="2" max="2" width="13.57"/>
     <col customWidth="1" min="3" max="3" width="62.86"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col customWidth="1" min="4" max="4" width="16.0"/>
+    <col customWidth="1" min="5" max="5" width="16.14"/>
+    <col customWidth="1" min="6" max="6" width="15.43"/>
+    <col customWidth="1" min="7" max="7" width="15.14"/>
+    <col customWidth="1" min="8" max="8" width="40.71"/>
+    <col customWidth="1" min="9" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -864,985 +1034,1090 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
+      <c r="A7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
+      <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
+      <c r="A11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
+      <c r="A13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
+      <c r="A14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>31</v>
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>33</v>
+      <c r="A16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>35</v>
+      <c r="A17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>37</v>
+      <c r="A18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>39</v>
+      <c r="A19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>41</v>
+      <c r="A20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>43</v>
+      <c r="A21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>45</v>
+      <c r="A22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>47</v>
+      <c r="A23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>49</v>
+      <c r="A24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>51</v>
+      <c r="A25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>53</v>
+      <c r="A26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>55</v>
+      <c r="A27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>57</v>
+      <c r="A28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>59</v>
+      <c r="A29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>62</v>
+      <c r="A30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>64</v>
+      <c r="A31" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>66</v>
+      <c r="A32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>68</v>
+      <c r="A33" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>70</v>
+      <c r="A34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>72</v>
+      <c r="A35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>74</v>
+      <c r="A36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>76</v>
+      <c r="A37" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>78</v>
+      <c r="A38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>80</v>
+      <c r="A39" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>82</v>
+      <c r="A40" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>84</v>
+      <c r="A41" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>86</v>
+      <c r="A42" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>88</v>
+      <c r="A43" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>90</v>
+      <c r="A44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>92</v>
+      <c r="A45" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>94</v>
+      <c r="A46" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>96</v>
+      <c r="A47" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>98</v>
+      <c r="A48" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>100</v>
+      <c r="A49" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>102</v>
+      <c r="A50" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>104</v>
+      <c r="A51" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>106</v>
+      <c r="A52" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>108</v>
+      <c r="A53" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>110</v>
+      <c r="A54" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>112</v>
+      <c r="A55" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>114</v>
+      <c r="A56" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>116</v>
+      <c r="A57" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="A58" s="4" t="s">
         <v>119</v>
       </c>
+      <c r="B58" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="A59" s="7" t="s">
         <v>121</v>
       </c>
+      <c r="B59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="A60" s="7" t="s">
         <v>123</v>
       </c>
+      <c r="B60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="A61" s="7" t="s">
         <v>125</v>
       </c>
+      <c r="B61" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="A62" s="7" t="s">
         <v>127</v>
       </c>
+      <c r="B62" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="A63" s="7" t="s">
         <v>129</v>
       </c>
+      <c r="B63" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="A64" s="16" t="s">
         <v>131</v>
       </c>
+      <c r="B64" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="A65" s="7" t="s">
         <v>133</v>
       </c>
+      <c r="B65" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="A66" s="16" t="s">
         <v>135</v>
       </c>
+      <c r="B66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="A67" s="7" t="s">
         <v>137</v>
       </c>
+      <c r="B67" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="A68" s="7" t="s">
         <v>139</v>
       </c>
+      <c r="B68" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="A69" s="7" t="s">
         <v>141</v>
       </c>
+      <c r="B69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="A70" s="7" t="s">
         <v>143</v>
       </c>
+      <c r="B70" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="A71" s="7" t="s">
         <v>145</v>
       </c>
+      <c r="B71" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="A72" s="7" t="s">
         <v>147</v>
       </c>
+      <c r="B72" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="A73" s="7" t="s">
         <v>149</v>
       </c>
+      <c r="B73" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="A74" s="7" t="s">
         <v>151</v>
       </c>
+      <c r="B74" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C75" s="3" t="s">
+      <c r="A75" s="7" t="s">
         <v>153</v>
       </c>
+      <c r="B75" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="A76" s="7" t="s">
         <v>155</v>
       </c>
+      <c r="B76" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="A77" s="9" t="s">
         <v>157</v>
       </c>
+      <c r="B77" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="3" t="s">
+      <c r="A78" s="7" t="s">
         <v>159</v>
       </c>
+      <c r="B78" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="A79" s="7" t="s">
         <v>161</v>
       </c>
+      <c r="B79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="A80" s="7" t="s">
         <v>163</v>
       </c>
+      <c r="B80" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C81" s="3" t="s">
+      <c r="A81" s="7" t="s">
         <v>165</v>
       </c>
+      <c r="B81" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C82" s="3" t="s">
+      <c r="A82" s="7" t="s">
         <v>167</v>
       </c>
+      <c r="B82" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C83" s="3" t="s">
+      <c r="A83" s="9" t="s">
         <v>169</v>
       </c>
+      <c r="B83" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C84" s="3" t="s">
+      <c r="A84" s="7" t="s">
         <v>171</v>
       </c>
+      <c r="B84" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C85" s="3" t="s">
+      <c r="A85" s="7" t="s">
         <v>173</v>
       </c>
+      <c r="B85" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C86" s="3" t="s">
+      <c r="A86" s="7" t="s">
         <v>175</v>
       </c>
+      <c r="B86" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C87" s="3" t="s">
+      <c r="A87" s="7" t="s">
         <v>177</v>
       </c>
+      <c r="B87" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C88" s="3" t="s">
+      <c r="A88" s="7" t="s">
         <v>179</v>
       </c>
+      <c r="B88" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C89" s="3" t="s">
+      <c r="A89" s="9" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
+      <c r="B89" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25" customHeight="1">
+      <c r="A90" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25" customHeight="1">
+      <c r="A91" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" customHeight="1">
+      <c r="A92" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25" customHeight="1">
+      <c r="A93" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25" customHeight="1">
+      <c r="A94" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25" customHeight="1">
+      <c r="A95" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25" customHeight="1">
+      <c r="A96" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25" customHeight="1">
+      <c r="A97" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25" customHeight="1">
+      <c r="A98" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25" customHeight="1">
+      <c r="A99" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
     <row r="100" ht="14.25" customHeight="1"/>
     <row r="101" ht="14.25" customHeight="1"/>
     <row r="102" ht="14.25" customHeight="1"/>
@@ -2745,10 +3020,35 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$C$89"/>
+  <autoFilter ref="$A$1:$C$99">
+    <sortState ref="A1:C99">
+      <sortCondition ref="A1:A99"/>
+    </sortState>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C6"/>
+    <hyperlink r:id="rId3" ref="C8"/>
+    <hyperlink r:id="rId4" ref="C9"/>
+    <hyperlink r:id="rId5" ref="C12"/>
+    <hyperlink r:id="rId6" ref="C15"/>
+    <hyperlink r:id="rId7" ref="C19"/>
+    <hyperlink r:id="rId8" ref="C25"/>
+    <hyperlink r:id="rId9" ref="C31"/>
+    <hyperlink r:id="rId10" ref="C36"/>
+    <hyperlink r:id="rId11" ref="C40"/>
+    <hyperlink r:id="rId12" ref="C44"/>
+    <hyperlink r:id="rId13" ref="C52"/>
+    <hyperlink r:id="rId14" ref="C58"/>
+    <hyperlink r:id="rId15" ref="C59"/>
+    <hyperlink r:id="rId16" ref="C63"/>
+    <hyperlink r:id="rId17" ref="C64"/>
+    <hyperlink r:id="rId18" ref="C83"/>
+    <hyperlink r:id="rId19" ref="C89"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>
--- a/trails.xlsx
+++ b/trails.xlsx
@@ -7,7 +7,7 @@
   </sheets>
   <definedNames>
     <definedName name="Slicer_Area">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Data!$A$1:$C$99</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Data!$A$1:$C$108</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="221">
   <si>
     <t>Name</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Aasvoëlbad</t>
   </si>
   <si>
-    <t>Hartbeespoort</t>
+    <t>North West</t>
   </si>
   <si>
     <t>https://www.merrell.co.za/hiking_clubs/aasvoelbad</t>
@@ -78,9 +78,6 @@
     <t>Bergheim</t>
   </si>
   <si>
-    <t>Rustenburg</t>
-  </si>
-  <si>
     <t>https://edinburghmintohotel.co.uk/all/bergheim-hiking-trail-explore-hidden-gorges-and-stunning-views-in-magaliesberg/</t>
   </si>
   <si>
@@ -102,6 +99,21 @@
     <t>https://buffelsdriftmtb.co.za/</t>
   </si>
   <si>
+    <t>Castle gorge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North West </t>
+  </si>
+  <si>
+    <t>https://www.jhbhiking.co.za/</t>
+  </si>
+  <si>
+    <t>Cradle moon</t>
+  </si>
+  <si>
+    <t>https://cradlemoon.co.za/</t>
+  </si>
+  <si>
     <t>Danielsrust game farm</t>
   </si>
   <si>
@@ -130,6 +142,24 @@
   </si>
   <si>
     <t>https://dinokengresort.co.za/</t>
+  </si>
+  <si>
+    <t>Dome pools</t>
+  </si>
+  <si>
+    <t>https://magaliesberg.mcsa.org.za/properties/dome-pools/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eagle cove </t>
+  </si>
+  <si>
+    <t>https://kumbagana.co.za/</t>
+  </si>
+  <si>
+    <t>Easterkloof</t>
+  </si>
+  <si>
+    <t>https://www.mcsajohannesburg.org/properties/north-west/easterkloof-magaliesberg/</t>
   </si>
   <si>
     <t>Ezamvelo nature reserve</t>
@@ -324,6 +354,15 @@
     <t>https://www.jhbcityparksandzoo.com/services-facilities/nature-reserves-bird-sanctuary/find-a-reserve/kloofendal-nature-reserve</t>
   </si>
   <si>
+    <t>https://kloofendalfriends.org.za/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kranskloof </t>
+  </si>
+  <si>
+    <t>https://www.merrell.co.za/hiking_clubs/kranskloof-hiking-trails?srsltid=AfmBOopj71zMKwhzwW4JAkZppVEiMkS6-gad_qEHNqtMoSLydkV5YmOX</t>
+  </si>
+  <si>
     <t>Leeuwenkloof</t>
   </si>
   <si>
@@ -358,6 +397,12 @@
   </si>
   <si>
     <t>http://www.mk.org.za/</t>
+  </si>
+  <si>
+    <t>Milorho</t>
+  </si>
+  <si>
+    <t>https://www.milorholodge.co.za/</t>
   </si>
   <si>
     <t xml:space="preserve">Modderfontein reserve (Toroko) </t>
@@ -486,6 +531,15 @@
     <t>https://riversandsfarm.co.za/</t>
   </si>
   <si>
+    <t>Riverside paradise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretoria </t>
+  </si>
+  <si>
+    <t>https://www.riversideparadise.co.za/</t>
+  </si>
+  <si>
     <t>Rosemary Hill</t>
   </si>
   <si>
@@ -636,7 +690,7 @@
     <t>https://www.windybrowgamereserve.co.za/</t>
   </si>
   <si>
-    <t>Wolwespruit bike &amp; trail park</t>
+    <t>Wolwespruit</t>
   </si>
   <si>
     <t>https://wolwespruit.co.za/</t>
@@ -652,7 +706,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -689,8 +743,15 @@
       <color rgb="FF0563C1"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -758,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -784,15 +845,18 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1066,7 +1130,7 @@
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1099,7 +1163,7 @@
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1111,86 +1175,86 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1199,20 +1263,20 @@
         <v>35</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1228,35 +1292,35 @@
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1265,7 +1329,7 @@
         <v>47</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>48</v>
@@ -1276,31 +1340,31 @@
         <v>49</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1308,7 +1372,7 @@
       <c r="A26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1320,9 +1384,9 @@
         <v>57</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1330,7 +1394,7 @@
       <c r="A28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -1342,20 +1406,20 @@
         <v>61</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1363,18 +1427,18 @@
       <c r="A31" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="13" t="s">
+      <c r="B31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -1385,7 +1449,7 @@
       <c r="A33" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -1396,8 +1460,8 @@
       <c r="A34" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>12</v>
+      <c r="B34" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>72</v>
@@ -1408,28 +1472,28 @@
         <v>73</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -1440,8 +1504,8 @@
       <c r="A38" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>12</v>
+      <c r="B38" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>80</v>
@@ -1452,7 +1516,7 @@
         <v>81</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>82</v>
@@ -1462,21 +1526,21 @@
       <c r="A40" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="B40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1484,10 +1548,10 @@
       <c r="A42" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="8" t="s">
+      <c r="B42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1503,13 +1567,13 @@
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="7" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1517,10 +1581,10 @@
       <c r="A45" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1536,13 +1600,13 @@
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="8" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1551,31 +1615,31 @@
         <v>99</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="7" t="s">
+      <c r="B49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1584,339 +1648,339 @@
         <v>105</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="5" t="s">
+      <c r="B52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="7" t="s">
-        <v>109</v>
+      <c r="A53" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" customHeight="1">
+      <c r="A54" s="12" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="7" t="s">
+      <c r="B54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="7" t="s">
+    </row>
+    <row r="57" ht="14.25" customHeight="1">
+      <c r="A57" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="7" t="s">
+      <c r="C57" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="7" t="s">
+    </row>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="A58" s="7" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="4" t="s">
+      <c r="B58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="5" t="s">
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="A59" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="7" t="s">
+      <c r="B59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="A61" s="12" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="7" t="s">
+      <c r="B61" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="A64" s="7" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="16" t="s">
+      <c r="B64" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="7" t="s">
+    </row>
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="A66" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="16" t="s">
+      <c r="B66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="7" t="s">
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="17" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="7" t="s">
+      <c r="B72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="7" t="s">
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="A74" s="17" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="7" t="s">
+      <c r="B74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B76" s="7" t="s">
+    </row>
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="A77" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="9" t="s">
+      <c r="C77" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" s="7" t="s">
+    </row>
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="A81" s="12" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="7" t="s">
+      <c r="B81" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B81" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="5" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1925,20 +1989,20 @@
         <v>167</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B83" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" s="5" t="s">
+      <c r="B83" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1946,7 +2010,7 @@
       <c r="A84" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C84" s="7" t="s">
@@ -1958,18 +2022,18 @@
         <v>173</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B86" s="7" t="s">
-        <v>7</v>
+      <c r="B86" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>176</v>
@@ -1980,7 +2044,7 @@
         <v>177</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>178</v>
@@ -1991,25 +2055,25 @@
         <v>179</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="13" t="s">
+      <c r="B89" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B90" s="7" t="s">
@@ -2023,21 +2087,21 @@
       <c r="A91" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="17" t="s">
+      <c r="B91" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="9" t="s">
         <v>187</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2045,7 +2109,7 @@
       <c r="A93" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C93" s="7" t="s">
@@ -2068,7 +2132,7 @@
         <v>193</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>194</v>
@@ -2079,7 +2143,7 @@
         <v>195</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>196</v>
@@ -2097,36 +2161,126 @@
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="9" t="s">
         <v>199</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="14" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="17" t="s">
         <v>201</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1">
+      <c r="A100" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25" customHeight="1">
+      <c r="A101" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25" customHeight="1">
+      <c r="A102" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25" customHeight="1">
+      <c r="A103" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25" customHeight="1">
+      <c r="A104" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25" customHeight="1">
+      <c r="A105" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25" customHeight="1">
+      <c r="A106" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25" customHeight="1">
+      <c r="A107" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25" customHeight="1">
+      <c r="A108" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
     <row r="109" ht="14.25" customHeight="1"/>
     <row r="110" ht="14.25" customHeight="1"/>
     <row r="111" ht="14.25" customHeight="1"/>
@@ -3020,9 +3174,9 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$C$99">
-    <sortState ref="A1:C99">
-      <sortCondition ref="A1:A99"/>
+  <autoFilter ref="$A$1:$C$108">
+    <sortState ref="A1:C108">
+      <sortCondition ref="A1:A108"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -3031,24 +3185,33 @@
     <hyperlink r:id="rId3" ref="C8"/>
     <hyperlink r:id="rId4" ref="C9"/>
     <hyperlink r:id="rId5" ref="C12"/>
-    <hyperlink r:id="rId6" ref="C15"/>
-    <hyperlink r:id="rId7" ref="C19"/>
-    <hyperlink r:id="rId8" ref="C25"/>
-    <hyperlink r:id="rId9" ref="C31"/>
-    <hyperlink r:id="rId10" ref="C36"/>
-    <hyperlink r:id="rId11" ref="C40"/>
-    <hyperlink r:id="rId12" ref="C44"/>
-    <hyperlink r:id="rId13" ref="C52"/>
-    <hyperlink r:id="rId14" ref="C58"/>
-    <hyperlink r:id="rId15" ref="C59"/>
-    <hyperlink r:id="rId16" ref="C63"/>
-    <hyperlink r:id="rId17" ref="C64"/>
-    <hyperlink r:id="rId18" ref="C83"/>
-    <hyperlink r:id="rId19" ref="C89"/>
+    <hyperlink r:id="rId6" ref="C13"/>
+    <hyperlink r:id="rId7" ref="C14"/>
+    <hyperlink r:id="rId8" ref="C17"/>
+    <hyperlink r:id="rId9" ref="C19"/>
+    <hyperlink r:id="rId10" ref="C20"/>
+    <hyperlink r:id="rId11" ref="C21"/>
+    <hyperlink r:id="rId12" ref="C24"/>
+    <hyperlink r:id="rId13" ref="C30"/>
+    <hyperlink r:id="rId14" ref="C36"/>
+    <hyperlink r:id="rId15" ref="C41"/>
+    <hyperlink r:id="rId16" ref="C45"/>
+    <hyperlink r:id="rId17" ref="C49"/>
+    <hyperlink r:id="rId18" ref="C53"/>
+    <hyperlink r:id="rId19" ref="C54"/>
+    <hyperlink r:id="rId20" ref="C59"/>
+    <hyperlink r:id="rId21" ref="C61"/>
+    <hyperlink r:id="rId22" ref="C66"/>
+    <hyperlink r:id="rId23" ref="C67"/>
+    <hyperlink r:id="rId24" ref="C71"/>
+    <hyperlink r:id="rId25" ref="C72"/>
+    <hyperlink r:id="rId26" ref="C81"/>
+    <hyperlink r:id="rId27" ref="C92"/>
+    <hyperlink r:id="rId28" ref="C98"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId20"/>
+  <drawing r:id="rId29"/>
 </worksheet>
 </file>
--- a/trails.xlsx
+++ b/trails.xlsx
@@ -7,7 +7,7 @@
   </sheets>
   <definedNames>
     <definedName name="Slicer_Area">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Data!$A$1:$C$108</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Data!$A$1:$C$116</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="235">
   <si>
     <t>Name</t>
   </si>
@@ -75,6 +75,12 @@
     <t>http://www.bsorah.com/</t>
   </si>
   <si>
+    <t>Bekker trails</t>
+  </si>
+  <si>
+    <t>https://bekkertrails.co.za/</t>
+  </si>
+  <si>
     <t>Bergheim</t>
   </si>
   <si>
@@ -102,9 +108,6 @@
     <t>Castle gorge</t>
   </si>
   <si>
-    <t xml:space="preserve">North West </t>
-  </si>
-  <si>
     <t>https://www.jhbhiking.co.za/</t>
   </si>
   <si>
@@ -180,6 +183,12 @@
     <t>https://www.forestiva.com/hiking</t>
   </si>
   <si>
+    <t>Friends of Magalies’</t>
+  </si>
+  <si>
+    <t>https://magalies.org/</t>
+  </si>
+  <si>
     <t>Giloolys and Harvey park</t>
   </si>
   <si>
@@ -292,6 +301,12 @@
   </si>
   <si>
     <t>http://huddlepark.com/Pages/NATURE-TRAILS.asp</t>
+  </si>
+  <si>
+    <t>Ingonyamatrails</t>
+  </si>
+  <si>
+    <t>https://ingonyamatrails.co.za/</t>
   </si>
   <si>
     <t>Irene Farm</t>
@@ -324,6 +339,12 @@
     <t>https://roodekranswatch.com/category/kenmare-kloof-conservation-association/</t>
   </si>
   <si>
+    <t>Kgaswane nature reserve</t>
+  </si>
+  <si>
+    <t>https://northwestparks.org.za/kgaswane%20mountain%20reserve.html</t>
+  </si>
+  <si>
     <t>Kings Kloof</t>
   </si>
   <si>
@@ -375,6 +396,12 @@
     <t>https://www.leopardlodge.co.za/</t>
   </si>
   <si>
+    <t>Lonehill Nature Reserve</t>
+  </si>
+  <si>
+    <t>https://www.sa-venues.com/game-reserves/lonehill.php</t>
+  </si>
+  <si>
     <t>Made on earth</t>
   </si>
   <si>
@@ -397,6 +424,12 @@
   </si>
   <si>
     <t>http://www.mk.org.za/</t>
+  </si>
+  <si>
+    <t>Mhlabathini</t>
+  </si>
+  <si>
+    <t>https://magaliesberg.mcsa.org.za/properties/mhlabatini/</t>
   </si>
   <si>
     <t>Milorho</t>
@@ -495,6 +528,12 @@
     <t>https://piesangkloof.co.za/</t>
   </si>
   <si>
+    <t>Pilanesberg</t>
+  </si>
+  <si>
+    <t>https://www.pilanesbergnationalpark.org/safaris/walking/</t>
+  </si>
+  <si>
     <t>Pretoria botanical gardens</t>
   </si>
   <si>
@@ -534,9 +573,6 @@
     <t>Riverside paradise</t>
   </si>
   <si>
-    <t xml:space="preserve">Pretoria </t>
-  </si>
-  <si>
     <t>https://www.riversideparadise.co.za/</t>
   </si>
   <si>
@@ -556,6 +592,12 @@
   </si>
   <si>
     <t>https://www.sablemagalies.co.za/</t>
+  </si>
+  <si>
+    <t>Schoongezicht Hiking Trail</t>
+  </si>
+  <si>
+    <t>https://ecotrails.co.za/schoongezicht-hiking-trail/</t>
   </si>
   <si>
     <t>Segwati Getaways</t>
@@ -706,7 +748,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -755,6 +797,10 @@
     </font>
     <font>
       <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -767,6 +813,12 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -819,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -841,7 +893,7 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -851,15 +903,21 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,24 +1240,24 @@
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1208,482 +1266,482 @@
         <v>24</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="5" t="s">
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="12" t="s">
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="7" t="s">
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="7" t="s">
+      <c r="C15" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="7" t="s">
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="5" t="s">
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="7" t="s">
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="B19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="5" t="s">
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="5" t="s">
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="B22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="7" t="s">
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="4" t="s">
+      <c r="B24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="5" t="s">
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="7" t="s">
+      <c r="B25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="7" t="s">
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="7" t="s">
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>58</v>
+      <c r="C27" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="13" t="s">
+    </row>
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="4" t="s">
+      <c r="B30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="7" t="s">
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="7" t="s">
+      <c r="B32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="14" t="s">
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="9" t="s">
+      <c r="B37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="7" t="s">
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="7" t="s">
+      <c r="B39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="7" t="s">
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="4" t="s">
+      <c r="B41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="7" t="s">
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="7" t="s">
+      <c r="B43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="5" t="s">
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="A46" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="7" t="s">
+      <c r="B46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="7" t="s">
+    </row>
+    <row r="49" ht="14.25" customHeight="1">
+      <c r="A49" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="4" t="s">
+      <c r="C49" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" customHeight="1">
+      <c r="A51" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="7" t="s">
+      <c r="B51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="7" t="s">
+    </row>
+    <row r="52" ht="14.25" customHeight="1">
+      <c r="A52" s="7" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" customHeight="1">
+      <c r="A53" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="B53" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="5" t="s">
+      <c r="B54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1691,604 +1749,684 @@
       <c r="A55" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>4</v>
+      <c r="B55" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>4</v>
+      <c r="B56" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="15" t="s">
+    </row>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="A58" s="12" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="7" t="s">
+      <c r="B58" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="7" t="s">
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="A59" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="4" t="s">
+      <c r="B59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="7" t="s">
+    </row>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="A61" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="12" t="s">
+      <c r="C61" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="5" t="s">
+    </row>
+    <row r="62" ht="14.25" customHeight="1">
+      <c r="A62" s="16" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="7" t="s">
+      <c r="B62" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="7" t="s">
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="A64" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="7" t="s">
+      <c r="B64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="5" t="s">
+    </row>
+    <row r="67" ht="14.25" customHeight="1">
+      <c r="A67" s="12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="7" t="s">
+      <c r="B67" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="16" t="s">
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="17" t="s">
+      <c r="B72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="7" t="s">
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="A74" s="7" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="17" t="s">
+      <c r="B74" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" s="7" t="s">
+    </row>
+    <row r="78" ht="14.25" customHeight="1">
+      <c r="A78" s="9" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="7" t="s">
+      <c r="B78" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B79" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" s="7" t="s">
+    </row>
+    <row r="80" ht="14.25" customHeight="1">
+      <c r="A80" s="9" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="7" t="s">
+      <c r="B80" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" s="7" t="s">
+    </row>
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="A81" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="12" t="s">
+      <c r="B81" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="A82" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
       <c r="A84" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>4</v>
+        <v>169</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" customHeight="1">
+      <c r="A86" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B86" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C86" s="7" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="A87" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" customHeight="1">
+      <c r="A88" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B87" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="7" t="s">
+      <c r="B88" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>4</v>
+        <v>179</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>12</v>
+        <v>181</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" customHeight="1">
+      <c r="A92" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="7" t="s">
+      <c r="B92" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25" customHeight="1">
+      <c r="A94" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93" s="7" t="s">
+      <c r="B94" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25" customHeight="1">
+      <c r="A98" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B97" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" s="7" t="s">
+      <c r="B98" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="9" t="s">
+    <row r="99" ht="14.25" customHeight="1">
+      <c r="A99" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" s="14" t="s">
+      <c r="B99" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="17" t="s">
+    <row r="100" ht="14.25" customHeight="1">
+      <c r="A100" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B100" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C100" s="5" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="100" ht="14.25" customHeight="1">
-      <c r="A100" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C100" s="18" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1">
       <c r="A101" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" ht="14.25" customHeight="1">
       <c r="A102" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>4</v>
+        <v>205</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="A103" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="A104" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="A105" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25" customHeight="1">
+      <c r="A106" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C105" s="7" t="s">
+      <c r="B106" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="19" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
-      <c r="A106" s="7" t="s">
+    <row r="107" ht="14.25" customHeight="1">
+      <c r="A107" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B106" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" s="7" t="s">
+      <c r="B107" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
-      <c r="A107" s="4" t="s">
+    <row r="108" ht="14.25" customHeight="1">
+      <c r="A108" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B107" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" s="7" t="s">
+      <c r="B108" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="20" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
-      <c r="A108" s="9" t="s">
+    <row r="109" ht="14.25" customHeight="1">
+      <c r="A109" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" s="7" t="s">
+      <c r="B109" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1">
+      <c r="A110" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25" customHeight="1">
+      <c r="A111" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25" customHeight="1">
+      <c r="A112" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25" customHeight="1">
+      <c r="A113" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25" customHeight="1">
+      <c r="A114" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25" customHeight="1">
+      <c r="A115" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25" customHeight="1">
+      <c r="A116" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
     <row r="117" ht="14.25" customHeight="1"/>
     <row r="118" ht="14.25" customHeight="1"/>
     <row r="119" ht="14.25" customHeight="1"/>
@@ -3174,9 +3312,9 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$C$108">
-    <sortState ref="A1:C108">
-      <sortCondition ref="A1:A108"/>
+  <autoFilter ref="$A$1:$C$116">
+    <sortState ref="A1:C116">
+      <sortCondition ref="A1:A116"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -3184,34 +3322,42 @@
     <hyperlink r:id="rId2" ref="C6"/>
     <hyperlink r:id="rId3" ref="C8"/>
     <hyperlink r:id="rId4" ref="C9"/>
-    <hyperlink r:id="rId5" ref="C12"/>
+    <hyperlink r:id="rId5" ref="C10"/>
     <hyperlink r:id="rId6" ref="C13"/>
     <hyperlink r:id="rId7" ref="C14"/>
-    <hyperlink r:id="rId8" ref="C17"/>
-    <hyperlink r:id="rId9" ref="C19"/>
+    <hyperlink r:id="rId8" ref="C15"/>
+    <hyperlink r:id="rId9" ref="C18"/>
     <hyperlink r:id="rId10" ref="C20"/>
     <hyperlink r:id="rId11" ref="C21"/>
-    <hyperlink r:id="rId12" ref="C24"/>
-    <hyperlink r:id="rId13" ref="C30"/>
-    <hyperlink r:id="rId14" ref="C36"/>
-    <hyperlink r:id="rId15" ref="C41"/>
-    <hyperlink r:id="rId16" ref="C45"/>
-    <hyperlink r:id="rId17" ref="C49"/>
-    <hyperlink r:id="rId18" ref="C53"/>
-    <hyperlink r:id="rId19" ref="C54"/>
-    <hyperlink r:id="rId20" ref="C59"/>
-    <hyperlink r:id="rId21" ref="C61"/>
-    <hyperlink r:id="rId22" ref="C66"/>
-    <hyperlink r:id="rId23" ref="C67"/>
-    <hyperlink r:id="rId24" ref="C71"/>
-    <hyperlink r:id="rId25" ref="C72"/>
-    <hyperlink r:id="rId26" ref="C81"/>
-    <hyperlink r:id="rId27" ref="C92"/>
-    <hyperlink r:id="rId28" ref="C98"/>
+    <hyperlink r:id="rId12" ref="C22"/>
+    <hyperlink r:id="rId13" ref="C25"/>
+    <hyperlink r:id="rId14" ref="C26"/>
+    <hyperlink r:id="rId15" ref="C32"/>
+    <hyperlink r:id="rId16" ref="C38"/>
+    <hyperlink r:id="rId17" ref="C43"/>
+    <hyperlink r:id="rId18" ref="C46"/>
+    <hyperlink r:id="rId19" ref="C48"/>
+    <hyperlink r:id="rId20" ref="C51"/>
+    <hyperlink r:id="rId21" ref="C53"/>
+    <hyperlink r:id="rId22" ref="C57"/>
+    <hyperlink r:id="rId23" ref="C58"/>
+    <hyperlink r:id="rId24" ref="C61"/>
+    <hyperlink r:id="rId25" ref="C64"/>
+    <hyperlink r:id="rId26" ref="C66"/>
+    <hyperlink r:id="rId27" ref="C67"/>
+    <hyperlink r:id="rId28" ref="C72"/>
+    <hyperlink r:id="rId29" ref="C73"/>
+    <hyperlink r:id="rId30" ref="C77"/>
+    <hyperlink r:id="rId31" ref="C78"/>
+    <hyperlink r:id="rId32" ref="C81"/>
+    <hyperlink r:id="rId33" ref="C88"/>
+    <hyperlink r:id="rId34" ref="C92"/>
+    <hyperlink r:id="rId35" ref="C100"/>
+    <hyperlink r:id="rId36" ref="C106"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId29"/>
+  <drawing r:id="rId37"/>
 </worksheet>
 </file>